--- a/docs/PST1/PST1_01.08.24_output.xlsx
+++ b/docs/PST1/PST1_01.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,2400 +505,2939 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1730739961.1944833</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1730739976.1104143</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730739961.1944833.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730739976.1104143.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>290.08</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>289.19</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.8899999999999864</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1730739976.1253512</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1730739976.1253512.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
+          <t>./test_images/SBER1730739976.1253512.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>289.19</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>287.75</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-1.439999999999998</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1730739988.8925138</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1730739988.8925138.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1730739988.8925138.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>133.7</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>132.1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-1.599999999999994</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-1.2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1730740028.5652595</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1730740031.7046056</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730740028.5652595.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730740031.7046056.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>6720.5</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>6714.5</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>6</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1730740049.4122746</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1730740053.656543</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730740049.4122746.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730740053.656543.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>515.2</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>514.65</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.5500000000000682</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1730740061.2012517</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1730740068.4472709</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730740061.2012517.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730740068.4472709.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>511.25</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>507.6</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-3.649999999999977</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.7100000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1730740068.4622037</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1730740072.7293348</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730740068.4622037.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730740072.7293348.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>507.6</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>505.25</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>2.350000000000023</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1730740075.6672704</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1730740075.6672704.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1730740075.6672704.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>506.6</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>506.8</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0.1999999999999886</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1730740087.131068</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1730740089.0329893</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730740087.131068.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730740089.0329893.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>232.81</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>233.08</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.2700000000000102</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1730740093.8359442</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1730740094.3432868</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730740093.8359442.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730740094.3432868.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>232.59</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>231.69</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.9000000000000057</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1730740098.5137887</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1730740098.5137887.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1730740098.5137887.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>230.54</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>229.85</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.6899999999999977</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1730740103.5453038</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1730740121.703976</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730740103.5453038.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730740121.703976.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>1045.6</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>1035.4</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>10.19999999999982</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.98</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1730740121.718909</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1730740130.8641307</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730740121.718909.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730740130.8641307.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>1035.4</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>1029.2</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-6.200000000000045</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1730740130.8790758</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1730740131.088154</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730740130.8790758.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730740131.088154.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>1029.2</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>1028.6</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.6000000000001364</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1730740148.740205</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1730740160.61578</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730740148.740205.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730740160.61578.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>129.74</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>128.6</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-1.140000000000015</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.88</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1730740160.6307402</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1730740160.6307402.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1730740160.6307402.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>128.6</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>128.64</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.03999999999999204</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1730740162.724257</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1730740172.0819762</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730740162.724257.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730740172.0819762.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>166.74</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>166.88</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.1399999999999864</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1730740172.0969362</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1730740178.0576813</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730740172.0969362.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730740178.0576813.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>166.88</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>166.54</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.3400000000000034</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1730740188.1811178</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1730740188.1811178.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1730740188.1811178.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>164.26</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>164.66</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.4000000000000057</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1730740195.35022</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1730740202.7058794</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730740195.35022.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730740202.7058794.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>50.83</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>50.825</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.004999999999995453</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1730740206.363015</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1730740206.363015.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1730740206.363015.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>50.8</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>50.57</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.2299999999999969</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.45</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1730740229.6546311</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1730740246.1838727</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730740229.6546311.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730740246.1838727.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1421</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1411</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>10</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1730740246.19983</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1730740246.19983.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1730740246.19983.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1411</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1412.6</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.599999999999909</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1730740252.7501225</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1730740279.818156</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730740252.7501225.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730740279.818156.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>61.17</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>60.54</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.6300000000000026</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1730740279.8331172</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1730740279.8331172.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1730740279.8331172.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>60.54</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>60.68</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.1400000000000006</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1730740283.4261694</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1730740295.9262855</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/SELG1730740283.4261694.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/SELG1730740295.9262855.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>59.16</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>58.57</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.5899999999999963</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1730740300.9820452</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1730740310.683899</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/SELG1730740300.9820452.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/SELG1730740310.683899.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>58.08</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>57.15</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.9299999999999997</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-1.6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1730740310.698858</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1730740310.698858.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
+          <t>./test_images/SELG1730740310.698858.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>57.15</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-0.05000000000000426</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.09</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1730740315.5422862</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1730740317.629323</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730740315.5422862.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730740317.629323.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>145.06</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>145.14</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.07999999999998408</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1730740327.507876</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1730740327.507876.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1730740327.507876.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>144.62</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>142.98</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-1.640000000000015</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-1.13</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1730740341.9934254</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1730740347.1674178</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730740341.9934254.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730740347.1674178.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>21.393</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>21.353</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.03999999999999915</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1730740347.1833751</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1730740354.5873244</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730740347.1833751.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730740354.5873244.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>21.353</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>21.182</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.1710000000000029</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1730740370.3912835</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1730740370.3912835.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1730740370.3912835.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>20.837</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>20.831</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-0.006000000000000227</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1730740373.072397</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1730740378.032627</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730740373.072397.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730740378.032627.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>683.6</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>683.85</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.25</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1730740393.3705335</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1730740398.9798539</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730740393.3705335.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730740398.9798539.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>678.15</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>678.75</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.6000000000000227</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1730740398.9957833</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1730740398.9957833.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1730740398.9957833.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>678.75</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>679.2</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-0.4500000000000455</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.06999999999999999</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1730740422.177289</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1730740422.177289.png</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
+          <t>./test_images/FEES1730740422.177289.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>0.10018</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>0.09927999999999999</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-0.0009000000000000119</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.8999999999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1730740433.448145</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1730740436.4962971</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730740433.448145.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730740436.4962971.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>0.6046</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>0.6028</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.001800000000000024</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1730740456.6683168</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>./test_images/HYDR1730740456.6683168.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
+          <t>./test_images/HYDR1730740456.6683168.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>0.6022000000000001</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>0.6012999999999999</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-0.0009000000000001229</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.15</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1730740461.4030125</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1730740461.8295739</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MXI1730740461.4030125.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MXI1730740461.8295739.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>3038.15</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>3040.65</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>2.5</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1730740461.947535</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1730740463.2065537</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MXI1730740461.947535.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MXI1730740463.2065537.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>3037.4</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>3032.65</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-4.75</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1730740464.9703326</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1730740467.1683323</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MXI1730740464.9703326.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MXI1730740467.1683323.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>3025.75</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>3030.75</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>5</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1730740467.1842895</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1730740469.0131872</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/MXI1730740467.1842895.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/MXI1730740469.0131872.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>3030.75</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>3030.25</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1730740472.3713782</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1730740473.888189</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/MXI1730740472.3713782.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/MXI1730740473.888189.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>3018.4</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>3020.35</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-1.949999999999818</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1730740479.5243752</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1730740482.8692193</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/MXI1730740479.5243752.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/MXI1730740482.8692193.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>3011.65</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>3007.8</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-3.849999999999909</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1730740482.8841486</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1730740483.0807848</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/MXI1730740482.8841486.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/MXI1730740483.0807848.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>3007.8</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>3004.3</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>3.5</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1730740484.7153366</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1730740485.4484942</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/MXI1730740484.7153366.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/MXI1730740485.4484942.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>3002.05</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>3001.85</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.2000000000002728</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1730740486.4571655</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1730740486.7942674</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/MXI1730740486.4571655.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/MXI1730740486.7942674.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>2994.5</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>2991.45</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>3.050000000000182</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1730740487.2431493</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1730740489.2771318</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MXI1730740487.2431493.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MXI1730740489.2771318.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>2996.55</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>2996.1</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.4500000000002728</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1730740494.2709773</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1730740501.7376485</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730740494.2709773.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730740501.7376485.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>34.71</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>34.8</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.08999999999999631</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1730740501.753578</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1730740509.5031347</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730740501.753578.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730740509.5031347.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>34.8</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>34.935</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.1350000000000051</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1730740511.4877303</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1730740511.4877303.png</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1730740511.4877303.png</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>34.52</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>34.425</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-0.09500000000000597</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2896,7 +3450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2920,6 +3474,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2933,6 +3502,15 @@
       <c r="C2" t="n">
         <v>10</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.4650000000001001</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2941,75 +3519,129 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.850000000000023</v>
+        <v>-2.050000000000011</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.5125000000000028</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.4000000000000001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.599999999999909</v>
+        <v>-1.319999999999993</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
+      <c r="D4" t="n">
+        <v>-0.4399999999999977</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.19</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6299999999999955</v>
+        <v>0.3999999999999773</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1333333333333258</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.06000000000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8500000000000227</v>
+        <v>-1.57</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.5233333333333334</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-2.69</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>RUAL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.519999999999996</v>
+        <v>-0.04999999999999716</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.01666666666666572</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>RUAL</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04500000000000881</v>
+        <v>4.599999999999909</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.533333333333303</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="9">
@@ -3019,10 +3651,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.4799999999999898</v>
+        <v>-0.07999999999998408</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.02666666666666136</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.04000000000000004</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="10">
@@ -3032,10 +3673,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1310000000000038</v>
+        <v>-0.137000000000004</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.045666666666668</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.6400000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="11">
@@ -3045,10 +3695,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.004999999999995453</v>
+        <v>-0.2250000000000014</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.1125000000000007</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.4399999999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="12">
@@ -3058,89 +3717,152 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6300000000000026</v>
+        <v>0.7700000000000031</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3850000000000016</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.63</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>HYDR</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>-0.002700000000000147</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.001350000000000073</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>HYDR</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.001800000000000024</v>
+        <v>-1.180000000000007</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.5900000000000034</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.91</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.140000000000015</v>
+        <v>-0.5500000000000114</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.2750000000000057</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8899999999999864</v>
+        <v>11.59999999999991</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5.799999999999955</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10</v>
+        <v>-1.560000000000031</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.7800000000000153</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-1.07</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.53</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.07999999999998408</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
+      <c r="D18" t="n">
+        <v>6</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -3149,10 +3871,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-1.599999999999994</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-1.599999999999994</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-1.2</v>
       </c>
     </row>
     <row r="20">
@@ -3162,10 +3893,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-0.0009000000000000119</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.0009000000000000119</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.8999999999999999</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.9</v>
       </c>
     </row>
     <row r="21">
@@ -3180,6 +3920,11 @@
       <c r="C21" t="n">
         <v>0</v>
       </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
